--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Features</t>
   </si>
@@ -31,6 +31,9 @@
     <t>SVM</t>
   </si>
   <si>
+    <t>baseline</t>
+  </si>
+  <si>
     <t>N-Grams + Attr</t>
   </si>
   <si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t>N-Grams</t>
+  </si>
+  <si>
+    <t>Embeddings</t>
+  </si>
+  <si>
+    <t>Embeddings + Attr</t>
   </si>
 </sst>
 </file>
@@ -395,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,56 +426,108 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.8120000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="C2">
-        <v>0.643</v>
+        <v>0.792</v>
       </c>
       <c r="D2">
-        <v>0.8100000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="E2">
-        <v>0.82</v>
+        <v>0.797</v>
+      </c>
+      <c r="F2">
+        <v>0.756</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.744</v>
+        <v>0.748</v>
       </c>
       <c r="C3">
-        <v>0.594</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>0.732</v>
+        <v>0.74</v>
       </c>
       <c r="E3">
-        <v>0.74</v>
+        <v>0.738</v>
+      </c>
+      <c r="F3">
+        <v>0.743</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.789</v>
+        <v>0.782</v>
       </c>
       <c r="C4">
-        <v>0.594</v>
+        <v>0.782</v>
       </c>
       <c r="D4">
-        <v>0.782</v>
+        <v>0.771</v>
       </c>
       <c r="E4">
+        <v>0.795</v>
+      </c>
+      <c r="F4">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.801</v>
+      </c>
+      <c r="C5">
+        <v>0.63</v>
+      </c>
+      <c r="D5">
+        <v>0.778</v>
+      </c>
+      <c r="E5">
         <v>0.786</v>
+      </c>
+      <c r="F5">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.755</v>
+      </c>
+      <c r="C6">
+        <v>0.269</v>
+      </c>
+      <c r="D6">
+        <v>0.755</v>
+      </c>
+      <c r="E6">
+        <v>0.775</v>
+      </c>
+      <c r="F6">
+        <v>0.747</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.797</v>
+        <v>0.776</v>
       </c>
       <c r="C2">
-        <v>0.792</v>
+        <v>0.799</v>
       </c>
       <c r="D2">
-        <v>0.797</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E2">
-        <v>0.797</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F2">
-        <v>0.756</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.748</v>
+        <v>0.731</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>0.276</v>
       </c>
       <c r="D3">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="E3">
-        <v>0.738</v>
+        <v>0.678</v>
       </c>
       <c r="F3">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.782</v>
+        <v>0.824</v>
       </c>
       <c r="C4">
-        <v>0.782</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.771</v>
+        <v>0.797</v>
       </c>
       <c r="E4">
-        <v>0.795</v>
+        <v>0.805</v>
       </c>
       <c r="F4">
-        <v>0.743</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.801</v>
+        <v>0.783</v>
       </c>
       <c r="C5">
-        <v>0.63</v>
+        <v>0.631</v>
       </c>
       <c r="D5">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="E5">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="F5">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.755</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
       <c r="D6">
-        <v>0.755</v>
+        <v>0.781</v>
       </c>
       <c r="E6">
         <v>0.775</v>

--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="C2">
-        <v>0.799</v>
+        <v>0.783</v>
       </c>
       <c r="D2">
-        <v>0.8169999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="E2">
-        <v>0.8169999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="F2">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>0.744</v>
+      </c>
+      <c r="C3">
+        <v>0.277</v>
+      </c>
+      <c r="D3">
         <v>0.731</v>
       </c>
-      <c r="C3">
-        <v>0.276</v>
-      </c>
-      <c r="D3">
-        <v>0.737</v>
-      </c>
       <c r="E3">
-        <v>0.678</v>
+        <v>0.736</v>
       </c>
       <c r="F3">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.824</v>
+        <v>0.768</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.794</v>
       </c>
       <c r="D4">
-        <v>0.797</v>
+        <v>0.779</v>
       </c>
       <c r="E4">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="F4">
-        <v>0.755</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.783</v>
+        <v>0.793</v>
       </c>
       <c r="C5">
-        <v>0.631</v>
+        <v>0.643</v>
       </c>
       <c r="D5">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="E5">
-        <v>0.783</v>
+        <v>0.756</v>
       </c>
       <c r="F5">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>0.763</v>
+      </c>
+      <c r="C6">
+        <v>0.294</v>
+      </c>
+      <c r="D6">
         <v>0.76</v>
       </c>
-      <c r="C6">
-        <v>0.264</v>
-      </c>
-      <c r="D6">
-        <v>0.781</v>
-      </c>
       <c r="E6">
-        <v>0.775</v>
+        <v>0.768</v>
       </c>
       <c r="F6">
         <v>0.747</v>

--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.78</v>
+        <v>0.804</v>
       </c>
       <c r="C2">
-        <v>0.783</v>
+        <v>0.621</v>
       </c>
       <c r="D2">
-        <v>0.803</v>
+        <v>0.83</v>
       </c>
       <c r="E2">
-        <v>0.806</v>
+        <v>0.799</v>
       </c>
       <c r="F2">
-        <v>0.745</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.744</v>
+        <v>0.705</v>
       </c>
       <c r="C3">
-        <v>0.277</v>
+        <v>0.285</v>
       </c>
       <c r="D3">
-        <v>0.731</v>
+        <v>0.728</v>
       </c>
       <c r="E3">
-        <v>0.736</v>
+        <v>0.746</v>
       </c>
       <c r="F3">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.768</v>
+        <v>0.757</v>
       </c>
       <c r="C4">
-        <v>0.794</v>
+        <v>0.536</v>
       </c>
       <c r="D4">
-        <v>0.779</v>
+        <v>0.805</v>
       </c>
       <c r="E4">
-        <v>0.804</v>
+        <v>0.787</v>
       </c>
       <c r="F4">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>0.756</v>
+      </c>
+      <c r="C5">
+        <v>0.63</v>
+      </c>
+      <c r="D5">
+        <v>0.777</v>
+      </c>
+      <c r="E5">
         <v>0.793</v>
       </c>
-      <c r="C5">
-        <v>0.643</v>
-      </c>
-      <c r="D5">
-        <v>0.78</v>
-      </c>
-      <c r="E5">
-        <v>0.756</v>
-      </c>
       <c r="F5">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,19 +515,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.763</v>
+        <v>0.738</v>
       </c>
       <c r="C6">
-        <v>0.294</v>
+        <v>0.254</v>
       </c>
       <c r="D6">
-        <v>0.76</v>
+        <v>0.772</v>
       </c>
       <c r="E6">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="F6">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.804</v>
+        <v>0.794</v>
       </c>
       <c r="C2">
-        <v>0.621</v>
+        <v>0.794</v>
       </c>
       <c r="D2">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="E2">
-        <v>0.799</v>
+        <v>0.794</v>
       </c>
       <c r="F2">
-        <v>0.758</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.705</v>
+        <v>0.728</v>
       </c>
       <c r="C3">
-        <v>0.285</v>
+        <v>0.275</v>
       </c>
       <c r="D3">
-        <v>0.728</v>
+        <v>0.722</v>
       </c>
       <c r="E3">
-        <v>0.746</v>
+        <v>0.72</v>
       </c>
       <c r="F3">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.757</v>
+        <v>0.767</v>
       </c>
       <c r="C4">
-        <v>0.536</v>
+        <v>0.742</v>
       </c>
       <c r="D4">
-        <v>0.805</v>
+        <v>0.792</v>
       </c>
       <c r="E4">
-        <v>0.787</v>
+        <v>0.765</v>
       </c>
       <c r="F4">
-        <v>0.749</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.756</v>
+        <v>0.787</v>
       </c>
       <c r="C5">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="D5">
-        <v>0.777</v>
+        <v>0.792</v>
       </c>
       <c r="E5">
-        <v>0.793</v>
+        <v>0.779</v>
       </c>
       <c r="F5">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,19 +515,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.738</v>
+        <v>0.784</v>
       </c>
       <c r="C6">
-        <v>0.254</v>
+        <v>0.258</v>
       </c>
       <c r="D6">
-        <v>0.772</v>
+        <v>0.778</v>
       </c>
       <c r="E6">
-        <v>0.767</v>
+        <v>0.729</v>
       </c>
       <c r="F6">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/final_results_acc.xlsx
+++ b/modeling/results/final_results_acc.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.794</v>
+        <v>0.801</v>
       </c>
       <c r="C2">
-        <v>0.794</v>
+        <v>0.785</v>
       </c>
       <c r="D2">
-        <v>0.825</v>
+        <v>0.79</v>
       </c>
       <c r="E2">
-        <v>0.794</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F2">
-        <v>0.751</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="C3">
-        <v>0.275</v>
+        <v>0.273</v>
       </c>
       <c r="D3">
+        <v>0.707</v>
+      </c>
+      <c r="E3">
         <v>0.722</v>
       </c>
-      <c r="E3">
-        <v>0.72</v>
-      </c>
       <c r="F3">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.767</v>
+        <v>0.752</v>
       </c>
       <c r="C4">
-        <v>0.742</v>
+        <v>0.752</v>
       </c>
       <c r="D4">
-        <v>0.792</v>
+        <v>0.804</v>
       </c>
       <c r="E4">
-        <v>0.765</v>
+        <v>0.786</v>
       </c>
       <c r="F4">
-        <v>0.739</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.787</v>
+        <v>0.791</v>
       </c>
       <c r="C5">
-        <v>0.634</v>
+        <v>0.63</v>
       </c>
       <c r="D5">
-        <v>0.792</v>
+        <v>0.778</v>
       </c>
       <c r="E5">
-        <v>0.779</v>
+        <v>0.77</v>
       </c>
       <c r="F5">
-        <v>0.745</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,19 +515,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.784</v>
+        <v>0.762</v>
       </c>
       <c r="C6">
-        <v>0.258</v>
+        <v>0.272</v>
       </c>
       <c r="D6">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="E6">
-        <v>0.729</v>
+        <v>0.783</v>
       </c>
       <c r="F6">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
     </row>
   </sheetData>
